--- a/Test_Suite_Data.xlsx
+++ b/Test_Suite_Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24507691-F629-4781-BF5F-33C17176F476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD043C0-E0B1-44EC-8282-5FB9B72480B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="runner" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>TCID</t>
   </si>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>validation_message2</t>
+  </si>
+  <si>
+    <t>app_type</t>
+  </si>
+  <si>
+    <t>MobiControl</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>Soti DB</t>
+  </si>
+  <si>
+    <t>TC_375426</t>
+  </si>
+  <si>
+    <t>deleteApplication</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -527,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C61D4B-1E35-4B2E-A2F2-2072BDFEADA3}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,13 +564,14 @@
     <col min="3" max="3" width="37.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="7" width="14.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="33" style="4" customWidth="1"/>
+    <col min="9" max="9" width="53.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -563,16 +588,22 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -588,13 +619,19 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -606,12 +643,114 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -621,6 +760,12 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{4DABE741-E756-4DB7-913A-70C241B0CD1B}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{4B256051-81F7-430F-B85B-D2F1E061A55F}"/>
     <hyperlink ref="D3" r:id="rId4" xr:uid="{29EC8ED3-BC95-4A3E-A095-ECBFEF82CB08}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{5CA62D01-93C9-4C42-9A46-934E54FA9E2A}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{CB9C9AB9-FCE8-4519-8377-3D36F7D64245}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{FBFAB3B2-AFB3-4353-81D9-1C05ABC8E3DA}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{1439B88C-626A-4EAC-AE9E-72DAE46B0B03}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{C45386B9-4FF0-4F13-A0D6-FAD0F825AEEF}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{070D6895-5ED8-4572-A7C7-71A4AF050884}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
